--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah Magister\Data Mining A\Project Akhir\Dataset\glass6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\AI_Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE251B97-5CF8-4D1D-878A-E8B93254B396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398C8D65-3E2A-4F7F-A726-E45062FC0684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30705" yWindow="-6360" windowWidth="21600" windowHeight="11385" xr2:uid="{A280DF01-B178-458A-A913-6707A08BC7E2}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{A280DF01-B178-458A-A913-6707A08BC7E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="165">
   <si>
     <t xml:space="preserve"> Na</t>
   </si>
@@ -76,9 +76,6 @@
     <t xml:space="preserve"> 0.1224</t>
   </si>
   <si>
-    <t xml:space="preserve"> negative</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.65205</t>
   </si>
   <si>
@@ -485,9 +482,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.75915</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> positive</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.63</t>
@@ -582,7 +576,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,9 +596,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -642,7 +636,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -748,7 +742,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -900,24 +894,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91426BF6-EBCE-4E9F-AA86-7E472D8ABE0B}">
   <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -944,10 +938,10 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>151588824</v>
       </c>
@@ -975,11 +969,11 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>15176423</v>
       </c>
@@ -996,7 +990,7 @@
         <v>73002</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1">
         <v>852888</v>
@@ -1007,11 +1001,11 @@
       <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>152212996</v>
       </c>
@@ -1022,13 +1016,13 @@
         <v>382099</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
       <c r="G4" s="1">
         <v>95726</v>
@@ -1039,11 +1033,11 @@
       <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>152222108</v>
       </c>
@@ -1054,13 +1048,13 @@
         <v>37716</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>719884</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1">
         <v>102452</v>
@@ -1071,16 +1065,16 @@
       <c r="I5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>151755118</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>365935</v>
@@ -1092,7 +1086,7 @@
         <v>727892</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1">
         <v>827064</v>
@@ -1101,13 +1095,13 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>152099096</v>
       </c>
@@ -1124,7 +1118,7 @@
         <v>719604</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1">
         <v>940044</v>
@@ -1135,11 +1129,11 @@
       <c r="I7" t="s">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>151755118</v>
       </c>
@@ -1156,7 +1150,7 @@
         <v>732372</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1">
         <v>823836</v>
@@ -1167,11 +1161,11 @@
       <c r="I8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>151910022</v>
       </c>
@@ -1188,7 +1182,7 @@
         <v>721228</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1">
         <v>889472</v>
@@ -1199,11 +1193,11 @@
       <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>151793844</v>
       </c>
@@ -1220,7 +1214,7 @@
         <v>72638</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1">
         <v>843204</v>
@@ -1231,11 +1225,11 @@
       <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>151898632</v>
       </c>
@@ -1252,7 +1246,7 @@
         <v>72078</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1">
         <v>890548</v>
@@ -1263,11 +1257,11 @@
       <c r="I11" t="s">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>151215232</v>
       </c>
@@ -1284,7 +1278,7 @@
         <v>729796</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1">
         <v>834596</v>
@@ -1293,13 +1287,13 @@
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>151976084</v>
       </c>
@@ -1316,22 +1310,22 @@
         <v>717196</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1">
         <v>866876</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
         <v>9</v>
       </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>151761952</v>
       </c>
@@ -1348,7 +1342,7 @@
         <v>727276</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1">
         <v>782948</v>
@@ -1359,11 +1353,11 @@
       <c r="I14" t="s">
         <v>9</v>
       </c>
-      <c r="J14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>151784732</v>
       </c>
@@ -1380,7 +1374,7 @@
         <v>731084</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="1">
         <v>870104</v>
@@ -1391,11 +1385,11 @@
       <c r="I15" t="s">
         <v>9</v>
       </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>151720948</v>
       </c>
@@ -1412,7 +1406,7 @@
         <v>728508</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1">
         <v>843204</v>
@@ -1423,11 +1417,11 @@
       <c r="I16" t="s">
         <v>9</v>
       </c>
-      <c r="J16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>151746006</v>
       </c>
@@ -1444,7 +1438,7 @@
         <v>732708</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1">
         <v>85504</v>
@@ -1455,11 +1449,11 @@
       <c r="I17" t="s">
         <v>9</v>
       </c>
-      <c r="J17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>152210718</v>
       </c>
@@ -1470,13 +1464,13 @@
         <v>383895</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1">
         <v>717588</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1">
         <v>974476</v>
@@ -1487,11 +1481,11 @@
       <c r="I18" t="s">
         <v>9</v>
       </c>
-      <c r="J18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>151823458</v>
       </c>
@@ -1508,7 +1502,7 @@
         <v>729516</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="1">
         <v>843204</v>
@@ -1519,11 +1513,11 @@
       <c r="I19" t="s">
         <v>9</v>
       </c>
-      <c r="J19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>151919134</v>
       </c>
@@ -1540,7 +1534,7 @@
         <v>72078</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1">
         <v>830292</v>
@@ -1551,11 +1545,11 @@
       <c r="I20" t="s">
         <v>9</v>
       </c>
-      <c r="J20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>151761952</v>
       </c>
@@ -1572,7 +1566,7 @@
         <v>730076</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="1">
         <v>856116</v>
@@ -1583,11 +1577,11 @@
       <c r="I21" t="s">
         <v>9</v>
       </c>
-      <c r="J21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>151750562</v>
       </c>
@@ -1604,7 +1598,7 @@
         <v>730188</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1">
         <v>859344</v>
@@ -1615,11 +1609,11 @@
       <c r="I22" t="s">
         <v>9</v>
       </c>
-      <c r="J22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>151782454</v>
       </c>
@@ -1636,7 +1630,7 @@
         <v>729516</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="1">
         <v>875484</v>
@@ -1647,11 +1641,11 @@
       <c r="I23" t="s">
         <v>9</v>
       </c>
-      <c r="J23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>151793844</v>
       </c>
@@ -1665,10 +1659,10 @@
         <v>112139</v>
       </c>
       <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
         <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
       </c>
       <c r="G24" s="1">
         <v>87656</v>
@@ -1679,11 +1673,11 @@
       <c r="I24" t="s">
         <v>9</v>
       </c>
-      <c r="J24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>151837126</v>
       </c>
@@ -1700,7 +1694,7 @@
         <v>728508</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" s="1">
         <v>906688</v>
@@ -1711,11 +1705,11 @@
       <c r="I25" t="s">
         <v>9</v>
       </c>
-      <c r="J25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>15215149</v>
       </c>
@@ -1726,13 +1720,13 @@
         <v>365037</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1">
         <v>72218</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="1">
         <v>985236</v>
@@ -1741,13 +1735,13 @@
         <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>151595658</v>
       </c>
@@ -1764,7 +1758,7 @@
         <v>729684</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="1">
         <v>80662</v>
@@ -1773,13 +1767,13 @@
         <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>151734616</v>
       </c>
@@ -1796,7 +1790,7 @@
         <v>727276</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" s="1">
         <v>84428</v>
@@ -1805,13 +1799,13 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>15177562</v>
       </c>
@@ -1828,22 +1822,22 @@
         <v>729684</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="1">
         <v>856116</v>
       </c>
       <c r="H29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
         <v>44</v>
       </c>
-      <c r="I29" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>151777898</v>
       </c>
@@ -1860,7 +1854,7 @@
         <v>727612</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" s="1">
         <v>859344</v>
@@ -1871,11 +1865,11 @@
       <c r="I30" t="s">
         <v>9</v>
       </c>
-      <c r="J30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>151755118</v>
       </c>
@@ -1892,7 +1886,7 @@
         <v>729908</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G31" s="1">
         <v>803392</v>
@@ -1903,11 +1897,11 @@
       <c r="I31" t="s">
         <v>9</v>
       </c>
-      <c r="J31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>15215149</v>
       </c>
@@ -1918,13 +1912,13 @@
         <v>365037</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="1">
         <v>723188</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" s="1">
         <v>985236</v>
@@ -1933,13 +1927,13 @@
         <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>151743728</v>
       </c>
@@ -1956,7 +1950,7 @@
         <v>730916</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33" s="1">
         <v>81738</v>
@@ -1967,11 +1961,11 @@
       <c r="I33" t="s">
         <v>9</v>
       </c>
-      <c r="J33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1515706</v>
       </c>
@@ -1988,7 +1982,7 @@
         <v>73198</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G34" s="1">
         <v>808772</v>
@@ -1999,11 +1993,11 @@
       <c r="I34" t="s">
         <v>10</v>
       </c>
-      <c r="J34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>151720948</v>
       </c>
@@ -2020,7 +2014,7 @@
         <v>730412</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" s="1">
         <v>843204</v>
@@ -2031,11 +2025,11 @@
       <c r="I35" t="s">
         <v>9</v>
       </c>
-      <c r="J35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>151910022</v>
       </c>
@@ -2052,22 +2046,22 @@
         <v>718092</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" s="1">
         <v>877636</v>
       </c>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
         <v>9</v>
       </c>
-      <c r="J36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>151869018</v>
       </c>
@@ -2084,7 +2078,7 @@
         <v>72722</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G37" s="1">
         <v>883016</v>
@@ -2093,13 +2087,13 @@
         <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
-      </c>
-      <c r="J37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>152171992</v>
       </c>
@@ -2110,13 +2104,13 @@
         <v>38614</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E38" s="1">
         <v>717924</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G38" s="1">
         <v>954032</v>
@@ -2125,13 +2119,13 @@
         <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>151755118</v>
       </c>
@@ -2148,7 +2142,7 @@
         <v>729908</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G39" s="1">
         <v>839976</v>
@@ -2157,13 +2151,13 @@
         <v>9</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>151761952</v>
       </c>
@@ -2180,7 +2174,7 @@
         <v>732372</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40" s="1">
         <v>8389</v>
@@ -2191,11 +2185,11 @@
       <c r="I40" t="s">
         <v>9</v>
       </c>
-      <c r="J40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>151784732</v>
       </c>
@@ -2212,7 +2206,7 @@
         <v>72862</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" s="1">
         <v>848584</v>
@@ -2223,11 +2217,11 @@
       <c r="I41" t="s">
         <v>9</v>
       </c>
-      <c r="J41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15175284</v>
       </c>
@@ -2244,7 +2238,7 @@
         <v>733884</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42" s="1">
         <v>85504</v>
@@ -2253,13 +2247,13 @@
         <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
-      </c>
-      <c r="J42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>15178701</v>
       </c>
@@ -2276,7 +2270,7 @@
         <v>729516</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G43" s="1">
         <v>875484</v>
@@ -2285,13 +2279,13 @@
         <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>152320062</v>
       </c>
@@ -2302,13 +2296,13 @@
         <v>372221</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E44" s="1">
         <v>717476</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G44" s="1">
         <v>10568</v>
@@ -2317,13 +2311,13 @@
         <v>9</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>15229956</v>
       </c>
@@ -2334,13 +2328,13 @@
         <v>357853</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45" s="1">
         <v>719884</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45" s="1">
         <v>1017516</v>
@@ -2349,13 +2343,13 @@
         <v>9</v>
       </c>
       <c r="I45" t="s">
-        <v>57</v>
-      </c>
-      <c r="J45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>152101374</v>
       </c>
@@ -2363,7 +2357,7 @@
         <v>136427</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" s="1">
         <v>109892</v>
@@ -2372,7 +2366,7 @@
         <v>717812</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G46" s="1">
         <v>875484</v>
@@ -2383,11 +2377,11 @@
       <c r="I46" t="s">
         <v>9</v>
       </c>
-      <c r="J46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>151750562</v>
       </c>
@@ -2401,10 +2395,10 @@
         <v>149054</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G47" s="1">
         <v>851812</v>
@@ -2413,13 +2407,13 @@
         <v>9</v>
       </c>
       <c r="I47" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>152212996</v>
       </c>
@@ -2430,13 +2424,13 @@
         <v>382099</v>
       </c>
       <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
         <v>13</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
       </c>
       <c r="G48" s="1">
         <v>95726</v>
@@ -2447,11 +2441,11 @@
       <c r="I48" t="s">
         <v>9</v>
       </c>
-      <c r="J48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>152666318</v>
       </c>
@@ -2462,13 +2456,13 @@
         <v>369976</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E49" s="1">
         <v>715684</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G49" s="1">
         <v>982008</v>
@@ -2477,13 +2471,13 @@
         <v>9</v>
       </c>
       <c r="I49" t="s">
-        <v>63</v>
-      </c>
-      <c r="J49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>151925968</v>
       </c>
@@ -2500,7 +2494,7 @@
         <v>72358</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50" s="1">
         <v>91422</v>
@@ -2509,13 +2503,13 @@
         <v>9</v>
       </c>
       <c r="I50" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>152171992</v>
       </c>
@@ -2526,13 +2520,13 @@
         <v>374017</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E51" s="1">
         <v>720108</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" s="1">
         <v>960488</v>
@@ -2541,13 +2535,13 @@
         <v>9</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>151618438</v>
       </c>
@@ -2564,7 +2558,7 @@
         <v>729908</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="1">
         <v>777568</v>
@@ -2575,11 +2569,11 @@
       <c r="I52" t="s">
         <v>9</v>
       </c>
-      <c r="J52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>151761952</v>
       </c>
@@ -2596,7 +2590,7 @@
         <v>732876</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G53" s="1">
         <v>84966</v>
@@ -2607,11 +2601,11 @@
       <c r="I53" t="s">
         <v>9</v>
       </c>
-      <c r="J53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>151768786</v>
       </c>
@@ -2628,7 +2622,7 @@
         <v>731476</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G54" s="1">
         <v>853964</v>
@@ -2639,11 +2633,11 @@
       <c r="I54" t="s">
         <v>9</v>
       </c>
-      <c r="J54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>151796122</v>
       </c>
@@ -2660,7 +2654,7 @@
         <v>729572</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" s="1">
         <v>867952</v>
@@ -2671,11 +2665,11 @@
       <c r="I55" t="s">
         <v>9</v>
       </c>
-      <c r="J55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>151807512</v>
       </c>
@@ -2692,7 +2686,7 @@
         <v>728396</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" s="1">
         <v>90346</v>
@@ -2703,11 +2697,11 @@
       <c r="I56" t="s">
         <v>9</v>
       </c>
-      <c r="J56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>15215149</v>
       </c>
@@ -2718,13 +2712,13 @@
         <v>357853</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57" s="1">
         <v>722012</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G57" s="1">
         <v>982008</v>
@@ -2733,13 +2727,13 @@
         <v>9</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
-      </c>
-      <c r="J57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>15174145</v>
       </c>
@@ -2756,7 +2750,7 @@
         <v>730804</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" s="1">
         <v>80662</v>
@@ -2767,11 +2761,11 @@
       <c r="I58" t="s">
         <v>9</v>
       </c>
-      <c r="J58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>151748284</v>
       </c>
@@ -2788,7 +2782,7 @@
         <v>732092</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G59" s="1">
         <v>837824</v>
@@ -2797,13 +2791,13 @@
         <v>9</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
-      </c>
-      <c r="J59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>151736894</v>
       </c>
@@ -2820,7 +2814,7 @@
         <v>727892</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G60" s="1">
         <v>870104</v>
@@ -2831,11 +2825,11 @@
       <c r="I60" t="s">
         <v>9</v>
       </c>
-      <c r="J60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>151768786</v>
       </c>
@@ -2852,7 +2846,7 @@
         <v>730804</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G61" s="1">
         <v>869028</v>
@@ -2861,13 +2855,13 @@
         <v>9</v>
       </c>
       <c r="I61" t="s">
-        <v>67</v>
-      </c>
-      <c r="J61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>151755118</v>
       </c>
@@ -2884,7 +2878,7 @@
         <v>73198</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G62" s="1">
         <v>863648</v>
@@ -2895,11 +2889,11 @@
       <c r="I62" t="s">
         <v>9</v>
       </c>
-      <c r="J62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>151768786</v>
       </c>
@@ -2916,7 +2910,7 @@
         <v>73702</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" s="1">
         <v>905612</v>
@@ -2927,11 +2921,11 @@
       <c r="I63" t="s">
         <v>10</v>
       </c>
-      <c r="J63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>151905466</v>
       </c>
@@ -2948,7 +2942,7 @@
         <v>72638</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G64" s="1">
         <v>875484</v>
@@ -2959,11 +2953,11 @@
       <c r="I64" t="s">
         <v>9</v>
       </c>
-      <c r="J64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>151766508</v>
       </c>
@@ -2977,10 +2971,10 @@
         <v>129152</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G65" s="1">
         <v>821684</v>
@@ -2991,11 +2985,11 @@
       <c r="I65" t="s">
         <v>9</v>
       </c>
-      <c r="J65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>151566044</v>
       </c>
@@ -3012,7 +3006,7 @@
         <v>727388</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G66" s="1">
         <v>857192</v>
@@ -3023,11 +3017,11 @@
       <c r="I66" t="s">
         <v>9</v>
       </c>
-      <c r="J66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>152226664</v>
       </c>
@@ -3038,10 +3032,10 @@
         <v>381201</v>
       </c>
       <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" t="s">
         <v>70</v>
-      </c>
-      <c r="E67" t="s">
-        <v>71</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -3055,11 +3049,11 @@
       <c r="I67" t="s">
         <v>9</v>
       </c>
-      <c r="J67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>151966972</v>
       </c>
@@ -3070,13 +3064,13 @@
         <v>374915</v>
       </c>
       <c r="D68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E68" s="1">
         <v>72022</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G68" s="1">
         <v>900232</v>
@@ -3087,11 +3081,11 @@
       <c r="I68" t="s">
         <v>9</v>
       </c>
-      <c r="J68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>151777898</v>
       </c>
@@ -3108,7 +3102,7 @@
         <v>729796</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G69" s="1">
         <v>902384</v>
@@ -3117,13 +3111,13 @@
         <v>9</v>
       </c>
       <c r="I69" t="s">
-        <v>74</v>
-      </c>
-      <c r="J69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>15219705</v>
       </c>
@@ -3134,13 +3128,13 @@
         <v>384793</v>
       </c>
       <c r="D70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E70" s="1">
         <v>713612</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G70" s="1">
         <v>915296</v>
@@ -3151,11 +3145,11 @@
       <c r="I70" t="s">
         <v>9</v>
       </c>
-      <c r="J70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>15190091</v>
       </c>
@@ -3172,7 +3166,7 @@
         <v>719492</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G71" s="1">
         <v>900232</v>
@@ -3183,11 +3177,11 @@
       <c r="I71" t="s">
         <v>9</v>
       </c>
-      <c r="J71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>151848516</v>
       </c>
@@ -3204,7 +3198,7 @@
         <v>719604</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G72" s="1">
         <v>832444</v>
@@ -3213,13 +3207,13 @@
         <v>9</v>
       </c>
       <c r="I72" t="s">
-        <v>77</v>
-      </c>
-      <c r="J72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>151818902</v>
       </c>
@@ -3230,7 +3224,7 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E73" s="1">
         <v>744524</v>
@@ -3247,11 +3241,11 @@
       <c r="I73" t="s">
         <v>9</v>
       </c>
-      <c r="J73" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>151663998</v>
       </c>
@@ -3268,7 +3262,7 @@
         <v>729572</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" s="1">
         <v>803392</v>
@@ -3277,13 +3271,13 @@
         <v>9</v>
       </c>
       <c r="I74" t="s">
-        <v>79</v>
-      </c>
-      <c r="J74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>151709558</v>
       </c>
@@ -3300,7 +3294,7 @@
         <v>72722</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G75" s="1">
         <v>818456</v>
@@ -3311,11 +3305,11 @@
       <c r="I75" t="s">
         <v>9</v>
       </c>
-      <c r="J75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>151689056</v>
       </c>
@@ -3332,7 +3326,7 @@
         <v>732092</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G76" s="1">
         <v>853964</v>
@@ -3343,11 +3337,11 @@
       <c r="I76" t="s">
         <v>9</v>
       </c>
-      <c r="J76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>15266404</v>
       </c>
@@ -3358,7 +3352,7 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E77" s="1">
         <v>732092</v>
@@ -3375,11 +3369,11 @@
       <c r="I77" t="s">
         <v>9</v>
       </c>
-      <c r="J77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>151850794</v>
       </c>
@@ -3396,22 +3390,22 @@
         <v>728284</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G78" s="1">
         <v>841052</v>
       </c>
       <c r="H78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
-      </c>
-      <c r="J78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>151812068</v>
       </c>
@@ -3428,22 +3422,22 @@
         <v>72918</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79" s="1">
         <v>878712</v>
       </c>
       <c r="H79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s">
         <v>9</v>
       </c>
-      <c r="J79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>151645774</v>
       </c>
@@ -3460,7 +3454,7 @@
         <v>728116</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G80" s="1">
         <v>809848</v>
@@ -3471,11 +3465,11 @@
       <c r="I80" t="s">
         <v>9</v>
       </c>
-      <c r="J80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>151629828</v>
       </c>
@@ -3492,7 +3486,7 @@
         <v>73282</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G81" s="1">
         <v>823836</v>
@@ -3503,11 +3497,11 @@
       <c r="I81" t="s">
         <v>9</v>
       </c>
-      <c r="J81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>152725546</v>
       </c>
@@ -3518,13 +3512,13 @@
         <v>315198</v>
       </c>
       <c r="D82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E82" s="1">
         <v>705716</v>
       </c>
       <c r="F82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G82" s="1">
         <v>1163852</v>
@@ -3535,11 +3529,11 @@
       <c r="I82" t="s">
         <v>9</v>
       </c>
-      <c r="J82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>151891798</v>
       </c>
@@ -3556,7 +3550,7 @@
         <v>725484</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G83" s="1">
         <v>820608</v>
@@ -3565,13 +3559,13 @@
         <v>9</v>
       </c>
       <c r="I83" t="s">
-        <v>67</v>
-      </c>
-      <c r="J83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>151871296</v>
       </c>
@@ -3588,7 +3582,7 @@
         <v>725092</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G84" s="1">
         <v>85504</v>
@@ -3597,13 +3591,13 @@
         <v>9</v>
       </c>
       <c r="I84" t="s">
-        <v>87</v>
-      </c>
-      <c r="J84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>152176548</v>
       </c>
@@ -3617,10 +3611,10 @@
         <v>135893</v>
       </c>
       <c r="E85" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85" t="s">
         <v>88</v>
-      </c>
-      <c r="F85" t="s">
-        <v>89</v>
       </c>
       <c r="G85" s="1">
         <v>1114356</v>
@@ -3631,11 +3625,11 @@
       <c r="I85" t="s">
         <v>9</v>
       </c>
-      <c r="J85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>15162755</v>
       </c>
@@ -3652,7 +3646,7 @@
         <v>728284</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G86" s="1">
         <v>804468</v>
@@ -3663,11 +3657,11 @@
       <c r="I86" t="s">
         <v>9</v>
       </c>
-      <c r="J86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>151618438</v>
       </c>
@@ -3681,25 +3675,25 @@
         <v>148091</v>
       </c>
       <c r="E87" t="s">
+        <v>89</v>
+      </c>
+      <c r="F87" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s">
         <v>90</v>
       </c>
-      <c r="F87" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87" t="s">
-        <v>91</v>
-      </c>
       <c r="H87" t="s">
         <v>9</v>
       </c>
       <c r="I87" t="s">
         <v>9</v>
       </c>
-      <c r="J87" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>15160477</v>
       </c>
@@ -3713,10 +3707,10 @@
         <v>144881</v>
       </c>
       <c r="E88" t="s">
+        <v>91</v>
+      </c>
+      <c r="F88" t="s">
         <v>92</v>
-      </c>
-      <c r="F88" t="s">
-        <v>93</v>
       </c>
       <c r="G88" s="1">
         <v>827064</v>
@@ -3727,11 +3721,11 @@
       <c r="I88" t="s">
         <v>9</v>
       </c>
-      <c r="J88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>15170728</v>
       </c>
@@ -3748,7 +3742,7 @@
         <v>720612</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89" s="1">
         <v>788328</v>
@@ -3759,11 +3753,11 @@
       <c r="I89" t="s">
         <v>9</v>
       </c>
-      <c r="J89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>151666276</v>
       </c>
@@ -3777,10 +3771,10 @@
         <v>125942</v>
       </c>
       <c r="E90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G90" s="1">
         <v>86042</v>
@@ -3791,11 +3785,11 @@
       <c r="I90" t="s">
         <v>9</v>
       </c>
-      <c r="J90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>152613924</v>
       </c>
@@ -3812,7 +3806,7 @@
         <v>71238</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G91" s="1">
         <v>1343544</v>
@@ -3821,13 +3815,13 @@
         <v>9</v>
       </c>
       <c r="I91" t="s">
-        <v>63</v>
-      </c>
-      <c r="J91" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>151689056</v>
       </c>
@@ -3844,7 +3838,7 @@
         <v>725428</v>
       </c>
       <c r="F92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G92" s="1">
         <v>810924</v>
@@ -3855,11 +3849,11 @@
       <c r="I92" t="s">
         <v>9</v>
       </c>
-      <c r="J92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>151645774</v>
       </c>
@@ -3876,7 +3870,7 @@
         <v>723916</v>
       </c>
       <c r="F93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G93" s="1">
         <v>803392</v>
@@ -3887,11 +3881,11 @@
       <c r="I93" t="s">
         <v>9</v>
       </c>
-      <c r="J93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>15159338</v>
       </c>
@@ -3905,10 +3899,10 @@
         <v>142955</v>
       </c>
       <c r="E94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G94" s="1">
         <v>786176</v>
@@ -3919,11 +3913,11 @@
       <c r="I94" t="s">
         <v>9</v>
       </c>
-      <c r="J94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>151743728</v>
       </c>
@@ -3940,7 +3934,7 @@
         <v>735508</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G95" s="1">
         <v>889472</v>
@@ -3951,11 +3945,11 @@
       <c r="I95" t="s">
         <v>10</v>
       </c>
-      <c r="J95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>152474966</v>
       </c>
@@ -3969,10 +3963,10 @@
         <v>187895</v>
       </c>
       <c r="E96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G96" s="1">
         <v>1324176</v>
@@ -3981,13 +3975,13 @@
         <v>9</v>
       </c>
       <c r="I96" t="s">
-        <v>96</v>
-      </c>
-      <c r="J96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>151828014</v>
       </c>
@@ -4001,10 +3995,10 @@
         <v>141029</v>
       </c>
       <c r="E97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G97" s="1">
         <v>831368</v>
@@ -4013,13 +4007,13 @@
         <v>9</v>
       </c>
       <c r="I97" t="s">
-        <v>63</v>
-      </c>
-      <c r="J97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>151789288</v>
       </c>
@@ -4033,10 +4027,10 @@
         <v>130115</v>
       </c>
       <c r="E98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G98" s="1">
         <v>84428</v>
@@ -4045,13 +4039,13 @@
         <v>9</v>
       </c>
       <c r="I98" t="s">
-        <v>98</v>
-      </c>
-      <c r="J98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>151839404</v>
       </c>
@@ -4068,7 +4062,7 @@
         <v>725708</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G99" s="1">
         <v>867952</v>
@@ -4077,13 +4071,13 @@
         <v>9</v>
       </c>
       <c r="I99" t="s">
-        <v>99</v>
-      </c>
-      <c r="J99" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>15159338</v>
       </c>
@@ -4100,7 +4094,7 @@
         <v>730972</v>
       </c>
       <c r="F100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G100" s="1">
         <v>782948</v>
@@ -4111,11 +4105,11 @@
       <c r="I100" t="s">
         <v>9</v>
       </c>
-      <c r="J100" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>15159338</v>
       </c>
@@ -4132,7 +4126,7 @@
         <v>728676</v>
       </c>
       <c r="F101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G101" s="1">
         <v>804468</v>
@@ -4141,13 +4135,13 @@
         <v>9</v>
       </c>
       <c r="I101" t="s">
-        <v>74</v>
-      </c>
-      <c r="J101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>151588824</v>
       </c>
@@ -4164,7 +4158,7 @@
         <v>732596</v>
       </c>
       <c r="F102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G102" s="1">
         <v>8389</v>
@@ -4173,13 +4167,13 @@
         <v>9</v>
       </c>
       <c r="I102" t="s">
-        <v>60</v>
-      </c>
-      <c r="J102" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>151818902</v>
       </c>
@@ -4190,13 +4184,13 @@
         <v>276135</v>
       </c>
       <c r="D103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E103" s="1">
         <v>738084</v>
       </c>
       <c r="F103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G103" s="1">
         <v>942196</v>
@@ -4205,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="I103" t="s">
-        <v>103</v>
-      </c>
-      <c r="J103" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>151846238</v>
       </c>
@@ -4228,7 +4222,7 @@
         <v>72442</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104" s="1">
         <v>843204</v>
@@ -4239,11 +4233,11 @@
       <c r="I104" t="s">
         <v>9</v>
       </c>
-      <c r="J104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>152080872</v>
       </c>
@@ -4260,7 +4254,7 @@
         <v>719884</v>
       </c>
       <c r="F105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G105" s="1">
         <v>985236</v>
@@ -4269,13 +4263,13 @@
         <v>9</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
-      </c>
-      <c r="J105" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>151711836</v>
       </c>
@@ -4292,7 +4286,7 @@
         <v>729572</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G106" s="1">
         <v>810924</v>
@@ -4303,11 +4297,11 @@
       <c r="I106" t="s">
         <v>9</v>
       </c>
-      <c r="J106" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>151613882</v>
       </c>
@@ -4324,7 +4318,7 @@
         <v>728788</v>
       </c>
       <c r="F107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G107" s="1">
         <v>793708</v>
@@ -4333,13 +4327,13 @@
         <v>9</v>
       </c>
       <c r="I107" t="s">
-        <v>67</v>
-      </c>
-      <c r="J107" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>151591102</v>
       </c>
@@ -4367,11 +4361,11 @@
       <c r="I108" t="s">
         <v>9</v>
       </c>
-      <c r="J108" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>151841682</v>
       </c>
@@ -4388,7 +4382,7 @@
         <v>723412</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G109" s="1">
         <v>913144</v>
@@ -4397,13 +4391,13 @@
         <v>9</v>
       </c>
       <c r="I109" t="s">
-        <v>106</v>
-      </c>
-      <c r="J109" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>152408904</v>
       </c>
@@ -4420,7 +4414,7 @@
         <v>711484</v>
       </c>
       <c r="F110" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G110" s="1">
         <v>1078848</v>
@@ -4431,11 +4425,11 @@
       <c r="I110" t="s">
         <v>9</v>
       </c>
-      <c r="J110" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>151652608</v>
       </c>
@@ -4452,7 +4446,7 @@
         <v>724476</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111" s="1">
         <v>79586</v>
@@ -4463,11 +4457,11 @@
       <c r="I111" t="s">
         <v>9</v>
       </c>
-      <c r="J111" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>15184396</v>
       </c>
@@ -4484,7 +4478,7 @@
         <v>724028</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G112" s="1">
         <v>842128</v>
@@ -4495,11 +4489,11 @@
       <c r="I112" t="s">
         <v>9</v>
       </c>
-      <c r="J112" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>151812068</v>
       </c>
@@ -4516,7 +4510,7 @@
         <v>724924</v>
       </c>
       <c r="F113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G113" s="1">
         <v>815228</v>
@@ -4527,11 +4521,11 @@
       <c r="I113" t="s">
         <v>9</v>
       </c>
-      <c r="J113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>151632106</v>
       </c>
@@ -4548,7 +4542,7 @@
         <v>728676</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G114" s="1">
         <v>789404</v>
@@ -4559,11 +4553,11 @@
       <c r="I114" t="s">
         <v>9</v>
       </c>
-      <c r="J114" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>151645774</v>
       </c>
@@ -4580,7 +4574,7 @@
         <v>726492</v>
       </c>
       <c r="F115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G115" s="1">
         <v>807696</v>
@@ -4589,13 +4583,13 @@
         <v>9</v>
       </c>
       <c r="I115" t="s">
-        <v>63</v>
-      </c>
-      <c r="J115" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>152222108</v>
       </c>
@@ -4606,13 +4600,13 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E116" s="1">
         <v>726716</v>
       </c>
       <c r="F116" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G116" s="1">
         <v>1152016</v>
@@ -4621,13 +4615,13 @@
         <v>9</v>
       </c>
       <c r="I116" t="s">
-        <v>109</v>
-      </c>
-      <c r="J116" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>152739214</v>
       </c>
@@ -4638,7 +4632,7 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E117" s="1">
         <v>730804</v>
@@ -4655,11 +4649,11 @@
       <c r="I117" t="s">
         <v>9</v>
       </c>
-      <c r="J117" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>151686778</v>
       </c>
@@ -4676,7 +4670,7 @@
         <v>728396</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118" s="1">
         <v>809848</v>
@@ -4687,11 +4681,11 @@
       <c r="I118" t="s">
         <v>9</v>
       </c>
-      <c r="J118" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>151812068</v>
       </c>
@@ -4708,10 +4702,10 @@
         <v>72778</v>
       </c>
       <c r="F119" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G119" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
@@ -4719,11 +4713,11 @@
       <c r="I119" t="s">
         <v>9</v>
       </c>
-      <c r="J119" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>15166172</v>
       </c>
@@ -4740,22 +4734,22 @@
         <v>730076</v>
       </c>
       <c r="F120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G120" s="1">
         <v>82276</v>
       </c>
       <c r="H120" t="s">
+        <v>111</v>
+      </c>
+      <c r="I120" t="s">
         <v>112</v>
       </c>
-      <c r="I120" t="s">
-        <v>113</v>
-      </c>
-      <c r="J120" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>151572878</v>
       </c>
@@ -4772,7 +4766,7 @@
         <v>718708</v>
       </c>
       <c r="F121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G121" s="1">
         <v>735604</v>
@@ -4781,13 +4775,13 @@
         <v>9</v>
       </c>
       <c r="I121" t="s">
-        <v>87</v>
-      </c>
-      <c r="J121" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>151625272</v>
       </c>
@@ -4804,7 +4798,7 @@
         <v>72722</v>
       </c>
       <c r="F122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G122" s="1">
         <v>820608</v>
@@ -4815,11 +4809,11 @@
       <c r="I122" t="s">
         <v>9</v>
       </c>
-      <c r="J122" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>151859906</v>
       </c>
@@ -4836,7 +4830,7 @@
         <v>722628</v>
       </c>
       <c r="F123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G123" s="1">
         <v>86042</v>
@@ -4847,11 +4841,11 @@
       <c r="I123" t="s">
         <v>9</v>
       </c>
-      <c r="J123" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>15173006</v>
       </c>
@@ -4868,7 +4862,7 @@
         <v>728676</v>
       </c>
       <c r="F124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G124" s="1">
         <v>922828</v>
@@ -4879,11 +4873,11 @@
       <c r="I124" t="s">
         <v>9</v>
       </c>
-      <c r="J124" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>15170728</v>
       </c>
@@ -4900,7 +4894,7 @@
         <v>725204</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G125" s="1">
         <v>799088</v>
@@ -4911,11 +4905,11 @@
       <c r="I125" t="s">
         <v>9</v>
       </c>
-      <c r="J125" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>151805234</v>
       </c>
@@ -4932,7 +4926,7 @@
         <v>730692</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G126" s="1">
         <v>837824</v>
@@ -4941,13 +4935,13 @@
         <v>9</v>
       </c>
       <c r="I126" t="s">
-        <v>87</v>
-      </c>
-      <c r="J126" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>151591102</v>
       </c>
@@ -4975,11 +4969,11 @@
       <c r="I127" t="s">
         <v>9</v>
       </c>
-      <c r="J127" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>151568322</v>
       </c>
@@ -4996,7 +4990,7 @@
         <v>732484</v>
       </c>
       <c r="F128" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G128" s="1">
         <v>803392</v>
@@ -5007,11 +5001,11 @@
       <c r="I128" t="s">
         <v>9</v>
       </c>
-      <c r="J128" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>151841682</v>
       </c>
@@ -5028,7 +5022,7 @@
         <v>722796</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G129" s="1">
         <v>895928</v>
@@ -5037,13 +5031,13 @@
         <v>9</v>
       </c>
       <c r="I129" t="s">
-        <v>45</v>
-      </c>
-      <c r="J129" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>153393</v>
       </c>
@@ -5054,16 +5048,16 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E130" s="1">
         <v>701628</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -5071,11 +5065,11 @@
       <c r="I130" t="s">
         <v>10</v>
       </c>
-      <c r="J130" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>15277794</v>
       </c>
@@ -5086,13 +5080,13 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E131" s="1">
         <v>72022</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G131" s="1">
         <v>1440384</v>
@@ -5103,11 +5097,11 @@
       <c r="I131" t="s">
         <v>9</v>
       </c>
-      <c r="J131" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>152019366</v>
       </c>
@@ -5124,7 +5118,7 @@
         <v>717588</v>
       </c>
       <c r="F132" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G132" s="1">
         <v>1056252</v>
@@ -5133,13 +5127,13 @@
         <v>9</v>
       </c>
       <c r="I132" t="s">
-        <v>120</v>
-      </c>
-      <c r="J132" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>151800678</v>
       </c>
@@ -5156,7 +5150,7 @@
         <v>718092</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G133" s="1">
         <v>820608</v>
@@ -5165,13 +5159,13 @@
         <v>9</v>
       </c>
       <c r="I133" t="s">
-        <v>106</v>
-      </c>
-      <c r="J133" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>151591102</v>
       </c>
@@ -5199,11 +5193,11 @@
       <c r="I134" t="s">
         <v>9</v>
       </c>
-      <c r="J134" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>15163894</v>
       </c>
@@ -5220,7 +5214,7 @@
         <v>732316</v>
       </c>
       <c r="F135" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G135" s="1">
         <v>807696</v>
@@ -5229,13 +5223,13 @@
         <v>9</v>
       </c>
       <c r="I135" t="s">
-        <v>74</v>
-      </c>
-      <c r="J135" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>151591102</v>
       </c>
@@ -5252,7 +5246,7 @@
         <v>730972</v>
       </c>
       <c r="F136" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G136" s="1">
         <v>821684</v>
@@ -5263,11 +5257,11 @@
       <c r="I136" t="s">
         <v>9</v>
       </c>
-      <c r="J136" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>151654886</v>
       </c>
@@ -5284,22 +5278,22 @@
         <v>732708</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G137" s="1">
         <v>878712</v>
       </c>
       <c r="H137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I137" t="s">
-        <v>45</v>
-      </c>
-      <c r="J137" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>15167311</v>
       </c>
@@ -5316,7 +5310,7 @@
         <v>725316</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G138" s="1">
         <v>803392</v>
@@ -5325,13 +5319,13 @@
         <v>9</v>
       </c>
       <c r="I138" t="s">
-        <v>122</v>
-      </c>
-      <c r="J138" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>152176548</v>
       </c>
@@ -5345,10 +5339,10 @@
         <v>115028</v>
       </c>
       <c r="E139" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G139" s="1">
         <v>851812</v>
@@ -5359,11 +5353,11 @@
       <c r="I139" t="s">
         <v>9</v>
       </c>
-      <c r="J139" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>15167311</v>
       </c>
@@ -5380,7 +5374,7 @@
         <v>73142</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G140" s="1">
         <v>799088</v>
@@ -5391,11 +5385,11 @@
       <c r="I140" t="s">
         <v>9</v>
       </c>
-      <c r="J140" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>151595658</v>
       </c>
@@ -5412,7 +5406,7 @@
         <v>731084</v>
       </c>
       <c r="F141" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G141" s="1">
         <v>79048</v>
@@ -5423,11 +5417,11 @@
       <c r="I141" t="s">
         <v>9</v>
       </c>
-      <c r="J141" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>151408862</v>
       </c>
@@ -5455,16 +5449,16 @@
       <c r="I142" t="s">
         <v>9</v>
       </c>
-      <c r="J142" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>153124196</v>
       </c>
       <c r="B143" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
@@ -5473,25 +5467,25 @@
         <v>210044</v>
       </c>
       <c r="E143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G143" s="1">
         <v>1329556</v>
       </c>
       <c r="H143" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I143" t="s">
-        <v>98</v>
-      </c>
-      <c r="J143" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>151846238</v>
       </c>
@@ -5508,7 +5502,7 @@
         <v>723804</v>
       </c>
       <c r="F144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G144" s="1">
         <v>82814</v>
@@ -5519,11 +5513,11 @@
       <c r="I144" t="s">
         <v>9</v>
       </c>
-      <c r="J144" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>152067204</v>
       </c>
@@ -5540,22 +5534,22 @@
         <v>721788</v>
       </c>
       <c r="F145" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G145" s="1">
         <v>95726</v>
       </c>
       <c r="H145" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I145" t="s">
-        <v>40</v>
-      </c>
-      <c r="J145" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>15167311</v>
       </c>
@@ -5572,7 +5566,7 @@
         <v>733604</v>
       </c>
       <c r="F146" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G146" s="1">
         <v>79048</v>
@@ -5583,11 +5577,11 @@
       <c r="I146" t="s">
         <v>9</v>
       </c>
-      <c r="J146" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>151659442</v>
       </c>
@@ -5604,7 +5598,7 @@
         <v>729684</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G147" s="1">
         <v>880864</v>
@@ -5615,11 +5609,11 @@
       <c r="I147" t="s">
         <v>10</v>
       </c>
-      <c r="J147" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>15177562</v>
       </c>
@@ -5636,7 +5630,7 @@
         <v>720388</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G148" s="1">
         <v>878712</v>
@@ -5647,11 +5641,11 @@
       <c r="I148" t="s">
         <v>9</v>
       </c>
-      <c r="J148" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>151609326</v>
       </c>
@@ -5668,7 +5662,7 @@
         <v>726716</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G149" s="1">
         <v>83352</v>
@@ -5679,11 +5673,11 @@
       <c r="I149" t="s">
         <v>9</v>
       </c>
-      <c r="J149" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>151663998</v>
       </c>
@@ -5700,7 +5694,7 @@
         <v>724812</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G150" s="1">
         <v>837824</v>
@@ -5709,13 +5703,13 @@
         <v>9</v>
       </c>
       <c r="I150" t="s">
-        <v>40</v>
-      </c>
-      <c r="J150" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>152121876</v>
       </c>
@@ -5726,13 +5720,13 @@
         <v>375813</v>
       </c>
       <c r="D151" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E151" s="1">
         <v>717924</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G151" s="1">
         <v>964792</v>
@@ -5743,11 +5737,11 @@
       <c r="I151" t="s">
         <v>9</v>
       </c>
-      <c r="J151" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151645774</v>
       </c>
@@ -5764,7 +5758,7 @@
         <v>730076</v>
       </c>
       <c r="F152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G152" s="1">
         <v>858268</v>
@@ -5775,11 +5769,11 @@
       <c r="I152" t="s">
         <v>9</v>
       </c>
-      <c r="J152" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152210718</v>
       </c>
@@ -5790,13 +5784,13 @@
         <v>378058</v>
       </c>
       <c r="D153" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E153" s="1">
         <v>713612</v>
       </c>
       <c r="F153" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G153" s="1">
         <v>91422</v>
@@ -5805,13 +5799,13 @@
         <v>9</v>
       </c>
       <c r="I153" t="s">
-        <v>131</v>
-      </c>
-      <c r="J153" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>151693612</v>
       </c>
@@ -5825,10 +5819,10 @@
         <v>131078</v>
       </c>
       <c r="E154" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G154" s="1">
         <v>878712</v>
@@ -5839,11 +5833,11 @@
       <c r="I154" t="s">
         <v>9</v>
       </c>
-      <c r="J154" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>151777898</v>
       </c>
@@ -5854,13 +5848,13 @@
         <v>365037</v>
       </c>
       <c r="D155" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E155" s="1">
         <v>73002</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G155" s="1">
         <v>8927</v>
@@ -5871,11 +5865,11 @@
       <c r="I155" t="s">
         <v>9</v>
       </c>
-      <c r="J155" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>151796122</v>
       </c>
@@ -5892,7 +5886,7 @@
         <v>71938</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G156" s="1">
         <v>880864</v>
@@ -5901,13 +5895,13 @@
         <v>9</v>
       </c>
       <c r="I156" t="s">
-        <v>74</v>
-      </c>
-      <c r="J156" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>151609326</v>
       </c>
@@ -5924,7 +5918,7 @@
         <v>726884</v>
       </c>
       <c r="F157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G157" s="1">
         <v>832444</v>
@@ -5935,11 +5929,11 @@
       <c r="I157" t="s">
         <v>9</v>
       </c>
-      <c r="J157" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>15193508</v>
       </c>
@@ -5950,28 +5944,28 @@
         <v>353812</v>
       </c>
       <c r="D158" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E158" s="1">
         <v>726492</v>
       </c>
       <c r="F158" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G158" s="1">
         <v>889472</v>
       </c>
       <c r="H158" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I158" t="s">
         <v>10</v>
       </c>
-      <c r="J158" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>151768786</v>
       </c>
@@ -5988,7 +5982,7 @@
         <v>727724</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G159" s="1">
         <v>86042</v>
@@ -5999,11 +5993,11 @@
       <c r="I159" t="s">
         <v>9</v>
       </c>
-      <c r="J159" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>15183257</v>
       </c>
@@ -6020,7 +6014,7 @@
         <v>721396</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G160" s="1">
         <v>899156</v>
@@ -6031,11 +6025,11 @@
       <c r="I160" t="s">
         <v>9</v>
       </c>
-      <c r="J160" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>151670832</v>
       </c>
@@ -6052,7 +6046,7 @@
         <v>726996</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G161" s="1">
         <v>84428</v>
@@ -6061,13 +6055,13 @@
         <v>9</v>
       </c>
       <c r="I161" t="s">
-        <v>63</v>
-      </c>
-      <c r="J161" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>151654886</v>
       </c>
@@ -6084,7 +6078,7 @@
         <v>72638</v>
       </c>
       <c r="F162" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G162" s="1">
         <v>864724</v>
@@ -6095,11 +6089,11 @@
       <c r="I162" t="s">
         <v>9</v>
       </c>
-      <c r="J162" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>152126432</v>
       </c>
@@ -6110,7 +6104,7 @@
         <v>390181</v>
       </c>
       <c r="D163" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E163" s="1">
         <v>715012</v>
@@ -6127,11 +6121,11 @@
       <c r="I163" t="s">
         <v>9</v>
       </c>
-      <c r="J163" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>151643496</v>
       </c>
@@ -6145,10 +6139,10 @@
         <v>13493</v>
       </c>
       <c r="E164" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G164" s="1">
         <v>852888</v>
@@ -6159,11 +6153,11 @@
       <c r="I164" t="s">
         <v>9</v>
       </c>
-      <c r="J164" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>15196925</v>
       </c>
@@ -6180,7 +6174,7 @@
         <v>737524</v>
       </c>
       <c r="F165" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G165" s="1">
         <v>1153092</v>
@@ -6191,11 +6185,11 @@
       <c r="I165" t="s">
         <v>9</v>
       </c>
-      <c r="J165" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>151914578</v>
       </c>
@@ -6212,7 +6206,7 @@
         <v>726884</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G166" s="1">
         <v>1008908</v>
@@ -6223,11 +6217,11 @@
       <c r="I166" t="s">
         <v>9</v>
       </c>
-      <c r="J166" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>15151365</v>
       </c>
@@ -6238,7 +6232,7 @@
         <v>268053</v>
       </c>
       <c r="D167" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E167" s="1">
         <v>698884</v>
@@ -6255,11 +6249,11 @@
       <c r="I167" t="s">
         <v>9</v>
       </c>
-      <c r="J167" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>151315464</v>
       </c>
@@ -6276,7 +6270,7 @@
         <v>70482</v>
       </c>
       <c r="F168" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G168" s="1">
         <v>695792</v>
@@ -6287,11 +6281,11 @@
       <c r="I168" t="s">
         <v>9</v>
       </c>
-      <c r="J168" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>152119598</v>
       </c>
@@ -6299,7 +6293,7 @@
         <v>1297105</v>
       </c>
       <c r="C169" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D169" s="1">
         <v>15098</v>
@@ -6308,7 +6302,7 @@
         <v>733884</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G169" s="1">
         <v>1127268</v>
@@ -6317,13 +6311,13 @@
         <v>9</v>
       </c>
       <c r="I169" t="s">
-        <v>98</v>
-      </c>
-      <c r="J169" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>15215149</v>
       </c>
@@ -6340,7 +6334,7 @@
         <v>734388</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G170" s="1">
         <v>11617</v>
@@ -6351,11 +6345,11 @@
       <c r="I170" t="s">
         <v>9</v>
       </c>
-      <c r="J170" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>15132002</v>
       </c>
@@ -6372,7 +6366,7 @@
         <v>707004</v>
       </c>
       <c r="F171" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G171" s="1">
         <v>692564</v>
@@ -6383,11 +6377,11 @@
       <c r="I171" t="s">
         <v>9</v>
       </c>
-      <c r="J171" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>151666276</v>
       </c>
@@ -6404,7 +6398,7 @@
         <v>738812</v>
       </c>
       <c r="F172" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G172" s="1">
         <v>1017516</v>
@@ -6415,11 +6409,11 @@
       <c r="I172" t="s">
         <v>9</v>
       </c>
-      <c r="J172" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>1523679</v>
       </c>
@@ -6436,7 +6430,7 @@
         <v>72218</v>
       </c>
       <c r="F173" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G173" s="1">
         <v>1224108</v>
@@ -6447,11 +6441,11 @@
       <c r="I173" t="s">
         <v>9</v>
       </c>
-      <c r="J173" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>152042146</v>
       </c>
@@ -6468,7 +6462,7 @@
         <v>722516</v>
       </c>
       <c r="F174" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G174" s="1">
         <v>1249932</v>
@@ -6479,11 +6473,11 @@
       <c r="I174" t="s">
         <v>9</v>
       </c>
-      <c r="J174" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>151994308</v>
       </c>
@@ -6497,10 +6491,10 @@
         <v>176018</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F175" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G175" s="1">
         <v>1131572</v>
@@ -6511,11 +6505,11 @@
       <c r="I175" t="s">
         <v>9</v>
       </c>
-      <c r="J175" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>152058092</v>
       </c>
@@ -6532,22 +6526,22 @@
         <v>721788</v>
       </c>
       <c r="F176" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G176" s="1">
         <v>970172</v>
       </c>
       <c r="H176" t="s">
+        <v>140</v>
+      </c>
+      <c r="I176" t="s">
         <v>141</v>
       </c>
-      <c r="I176" t="s">
-        <v>142</v>
-      </c>
-      <c r="J176" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>152171992</v>
       </c>
@@ -6564,7 +6558,7 @@
         <v>72862</v>
       </c>
       <c r="F177" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G177" s="1">
         <v>1141256</v>
@@ -6575,11 +6569,11 @@
       <c r="I177" t="s">
         <v>9</v>
       </c>
-      <c r="J177" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>15196925</v>
       </c>
@@ -6590,7 +6584,7 @@
         <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E178" s="1">
         <v>73478</v>
@@ -6607,25 +6601,25 @@
       <c r="I178" t="s">
         <v>9</v>
       </c>
-      <c r="J178" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>151115</v>
       </c>
       <c r="B179" t="s">
+        <v>142</v>
+      </c>
+      <c r="C179" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" t="s">
         <v>143</v>
       </c>
-      <c r="C179" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>144</v>
-      </c>
-      <c r="E179" t="s">
-        <v>145</v>
       </c>
       <c r="F179" t="s">
         <v>9</v>
@@ -6639,11 +6633,11 @@
       <c r="I179" t="s">
         <v>9</v>
       </c>
-      <c r="J179" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>151937358</v>
       </c>
@@ -6671,11 +6665,11 @@
       <c r="I180" t="s">
         <v>9</v>
       </c>
-      <c r="J180" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>151828014</v>
       </c>
@@ -6703,11 +6697,11 @@
       <c r="I181" t="s">
         <v>9</v>
       </c>
-      <c r="J181" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>151853072</v>
       </c>
@@ -6735,11 +6729,11 @@
       <c r="I182" t="s">
         <v>9</v>
       </c>
-      <c r="J182" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>151299518</v>
       </c>
@@ -6767,11 +6761,11 @@
       <c r="I183" t="s">
         <v>9</v>
       </c>
-      <c r="J183" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>151887242</v>
       </c>
@@ -6779,7 +6773,7 @@
         <v>1499265</v>
       </c>
       <c r="C184" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D184" s="1">
         <v>174092</v>
@@ -6799,11 +6793,11 @@
       <c r="I184" t="s">
         <v>9</v>
       </c>
-      <c r="J184" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>151905466</v>
       </c>
@@ -6831,11 +6825,11 @@
       <c r="I185" t="s">
         <v>9</v>
       </c>
-      <c r="J185" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>151916856</v>
       </c>
@@ -6863,11 +6857,11 @@
       <c r="I186" t="s">
         <v>9</v>
       </c>
-      <c r="J186" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>151613882</v>
       </c>
@@ -6890,16 +6884,16 @@
         <v>866876</v>
       </c>
       <c r="H187" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I187" t="s">
         <v>9</v>
       </c>
-      <c r="J187" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>151509094</v>
       </c>
@@ -6922,16 +6916,16 @@
         <v>83352</v>
       </c>
       <c r="H188" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I188" t="s">
         <v>9</v>
       </c>
-      <c r="J188" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>152247166</v>
       </c>
@@ -6948,7 +6942,7 @@
         <v>70258</v>
       </c>
       <c r="F189" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G189" s="1">
         <v>975552</v>
@@ -6959,11 +6953,11 @@
       <c r="I189" t="s">
         <v>9</v>
       </c>
-      <c r="J189" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>151652608</v>
       </c>
@@ -6991,11 +6985,11 @@
       <c r="I190" t="s">
         <v>9</v>
       </c>
-      <c r="J190" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>152064926</v>
       </c>
@@ -7023,11 +7017,11 @@
       <c r="I191" t="s">
         <v>9</v>
       </c>
-      <c r="J191" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>151130946</v>
       </c>
@@ -7047,7 +7041,7 @@
         <v>175743</v>
       </c>
       <c r="G192" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H192" s="1">
         <v>11907</v>
@@ -7055,11 +7049,11 @@
       <c r="I192" t="s">
         <v>9</v>
       </c>
-      <c r="J192" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>151556932</v>
       </c>
@@ -7076,22 +7070,22 @@
         <v>732316</v>
       </c>
       <c r="F193" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G193" s="1">
         <v>94112</v>
       </c>
       <c r="H193" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I193" t="s">
-        <v>152</v>
-      </c>
-      <c r="J193" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>15163894</v>
       </c>
@@ -7114,16 +7108,16 @@
         <v>945424</v>
       </c>
       <c r="H194" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I194" t="s">
         <v>9</v>
       </c>
-      <c r="J194" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>152315506</v>
       </c>
@@ -7140,7 +7134,7 @@
         <v>723804</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G195" s="1">
         <v>883016</v>
@@ -7151,11 +7145,11 @@
       <c r="I195" t="s">
         <v>9</v>
       </c>
-      <c r="J195" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>151545542</v>
       </c>
@@ -7172,22 +7166,22 @@
         <v>733884</v>
       </c>
       <c r="F196" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G196" s="1">
         <v>906688</v>
       </c>
       <c r="H196" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I196" t="s">
-        <v>155</v>
-      </c>
-      <c r="J196" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>15165033</v>
       </c>
@@ -7215,11 +7209,11 @@
       <c r="I197" t="s">
         <v>9</v>
       </c>
-      <c r="J197" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>151682222</v>
       </c>
@@ -7245,13 +7239,13 @@
         <v>15687</v>
       </c>
       <c r="I198" t="s">
-        <v>43</v>
-      </c>
-      <c r="J198" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>151645774</v>
       </c>
@@ -7279,11 +7273,11 @@
       <c r="I199" t="s">
         <v>9</v>
       </c>
-      <c r="J199" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>15171867</v>
       </c>
@@ -7309,13 +7303,13 @@
         <v>159075</v>
       </c>
       <c r="I200" t="s">
-        <v>109</v>
-      </c>
-      <c r="J200" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>15161616</v>
       </c>
@@ -7338,16 +7332,16 @@
         <v>87118</v>
       </c>
       <c r="H201" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I201" t="s">
         <v>9</v>
       </c>
-      <c r="J201" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>151711836</v>
       </c>
@@ -7375,11 +7369,11 @@
       <c r="I202" t="s">
         <v>9</v>
       </c>
-      <c r="J202" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>152365622</v>
       </c>
@@ -7396,7 +7390,7 @@
         <v>704316</v>
       </c>
       <c r="F203" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G203" s="1">
         <v>861496</v>
@@ -7407,11 +7401,11 @@
       <c r="I203" t="s">
         <v>9</v>
       </c>
-      <c r="J203" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>15151365</v>
       </c>
@@ -7434,16 +7428,16 @@
         <v>8389</v>
       </c>
       <c r="H204" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I204" t="s">
         <v>9</v>
       </c>
-      <c r="J204" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>1516845</v>
       </c>
@@ -7457,7 +7451,7 @@
         <v>19913</v>
       </c>
       <c r="E205" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F205" t="s">
         <v>9</v>
@@ -7471,11 +7465,11 @@
       <c r="I205" t="s">
         <v>9</v>
       </c>
-      <c r="J205" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>151622994</v>
       </c>
@@ -7492,22 +7486,22 @@
         <v>734612</v>
       </c>
       <c r="F206" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G206" s="1">
         <v>904536</v>
       </c>
       <c r="H206" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I206" t="s">
-        <v>74</v>
-      </c>
-      <c r="J206" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>151531874</v>
       </c>
@@ -7524,22 +7518,22 @@
         <v>730972</v>
       </c>
       <c r="F207" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G207" s="1">
         <v>907764</v>
       </c>
       <c r="H207" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I207" t="s">
         <v>9</v>
       </c>
-      <c r="J207" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>151609326</v>
       </c>
@@ -7556,22 +7550,22 @@
         <v>730524</v>
       </c>
       <c r="F208" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G208" s="1">
         <v>883016</v>
       </c>
       <c r="H208" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I208" t="s">
         <v>9</v>
       </c>
-      <c r="J208" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>151830292</v>
       </c>
@@ -7599,11 +7593,11 @@
       <c r="I209" t="s">
         <v>9</v>
       </c>
-      <c r="J209" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>151602492</v>
       </c>
@@ -7626,16 +7620,16 @@
         <v>875484</v>
       </c>
       <c r="H210" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I210" t="s">
-        <v>74</v>
-      </c>
-      <c r="J210" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>151727782</v>
       </c>
@@ -7658,16 +7652,16 @@
         <v>894852</v>
       </c>
       <c r="H211" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I211" t="s">
         <v>9</v>
       </c>
-      <c r="J211" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>151622994</v>
       </c>
@@ -7681,10 +7675,10 @@
         <v>288047</v>
       </c>
       <c r="E212" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F212" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G212" s="1">
         <v>918524</v>
@@ -7695,11 +7689,11 @@
       <c r="I212" t="s">
         <v>9</v>
       </c>
-      <c r="J212" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>151837126</v>
       </c>
@@ -7727,11 +7721,11 @@
       <c r="I213" t="s">
         <v>9</v>
       </c>
-      <c r="J213" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>151657164</v>
       </c>
@@ -7759,11 +7753,11 @@
       <c r="I214" t="s">
         <v>9</v>
       </c>
-      <c r="J214" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>151732338</v>
       </c>
@@ -7791,8 +7785,8 @@
       <c r="I215" t="s">
         <v>9</v>
       </c>
-      <c r="J215" t="s">
-        <v>148</v>
+      <c r="J215">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
